--- a/Resources/Wss3.xlsx
+++ b/Resources/Wss3.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MM94-SRV-FS01\Filestorn\Отделы\77.07 Отдел метрологии\База данных\Протоколы поверки\Шаблоны Протоколов\ДВС-03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petlichenko\source\repos\advs\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA81B18A-9052-403C-9799-BE0EEEC7C7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ДВС-02" sheetId="1" r:id="rId1"/>
     <sheet name="Poveriteli" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -274,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -610,11 +609,236 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -747,231 +971,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,9 +990,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1031,9 +1030,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,7 +1067,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1103,7 +1102,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1276,11 +1275,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43:J46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,91 +1289,91 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73" t="s">
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1402,17 +1401,17 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="1"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -1437,37 +1436,37 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="L6" s="72" t="s">
+      <c r="L6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="92">
         <v>45334</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1485,304 +1484,304 @@
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="45" t="s">
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-      <c r="M10" s="73" t="s">
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
+      <c r="M10" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="51" t="s">
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="N12" s="87" t="s">
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
+      <c r="N12" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="O12" s="87" t="s">
+      <c r="O12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="87" t="s">
+      <c r="P12" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="87" t="s">
+      <c r="Q12" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="R12" s="78" t="s">
+      <c r="R12" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="S12" s="78"/>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="124"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35" t="s">
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="109"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
       <c r="I16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="114"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="23" t="s">
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97"/>
       <c r="N18" s="10">
         <v>0.7</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="12" t="str">
-        <f>IF(P18="","",ROUND(P18-O18,2))</f>
+        <f t="shared" ref="Q18:Q23" si="0">IF(P18="","",ROUND(P18-O18,2))</f>
         <v/>
       </c>
-      <c r="R18" s="88" t="str">
+      <c r="R18" s="34" t="str">
         <f>IF(P18="","", "±"&amp;ROUND(0.5,2))</f>
         <v/>
       </c>
-      <c r="S18" s="89"/>
+      <c r="S18" s="35"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
       <c r="N19" s="10">
         <v>2.5</v>
       </c>
       <c r="O19" s="13"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="12" t="str">
-        <f>IF(P19="","",ROUND(P19-O19,2))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R19" s="88" t="str">
-        <f t="shared" ref="R19:R20" si="0">IF(P19="","", "±"&amp;ROUND(0.4+0.035*P19,2))</f>
+      <c r="R19" s="34" t="str">
+        <f t="shared" ref="R19:R20" si="1">IF(P19="","", "±"&amp;ROUND(0.4+0.035*P19,2))</f>
         <v/>
       </c>
-      <c r="S19" s="89"/>
+      <c r="S19" s="35"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="103"/>
       <c r="N20" s="10">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O20" s="13"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="12" t="str">
-        <f>IF(P20="","",ROUND(P20-O20,2))</f>
-        <v/>
-      </c>
-      <c r="R20" s="88" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S20" s="89"/>
+      <c r="R20" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S20" s="35"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33" t="s">
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
       <c r="N21" s="10">
         <v>10</v>
       </c>
       <c r="O21" s="13"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="12" t="str">
-        <f>IF(P21="","",ROUND(P21-O21,2))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R21" s="88" t="str">
-        <f t="shared" ref="R21" si="1">IF(P21="","", "±"&amp;ROUND(0.4+0.035*P21,2))</f>
+      <c r="R21" s="34" t="str">
+        <f t="shared" ref="R21" si="2">IF(P21="","", "±"&amp;ROUND(0.4+0.035*P21,2))</f>
         <v/>
       </c>
-      <c r="S21" s="89"/>
+      <c r="S21" s="35"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -1801,114 +1800,114 @@
       <c r="O22" s="13"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="12" t="str">
-        <f>IF(P22="","",ROUND(P22-O22,2))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R22" s="88" t="str">
-        <f t="shared" ref="R22" si="2">IF(P22="","", "±"&amp;ROUND(0.4+0.035*P22,2))</f>
+      <c r="R22" s="34" t="str">
+        <f t="shared" ref="R22" si="3">IF(P22="","", "±"&amp;ROUND(0.4+0.035*P22,2))</f>
         <v/>
       </c>
-      <c r="S22" s="89"/>
+      <c r="S22" s="35"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
       <c r="N23" s="10">
         <v>30</v>
       </c>
       <c r="O23" s="13"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="12" t="str">
-        <f>IF(P23="","",ROUND(P23-O23,2))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="R23" s="88" t="str">
-        <f t="shared" ref="R23" si="3">IF(P23="","", "±"&amp;ROUND(0.4+0.035*P23,2))</f>
+      <c r="R23" s="34" t="str">
+        <f t="shared" ref="R23" si="4">IF(P23="","", "±"&amp;ROUND(0.4+0.035*P23,2))</f>
         <v/>
       </c>
-      <c r="S23" s="89"/>
+      <c r="S23" s="35"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="66" t="s">
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69" t="s">
+      <c r="F24" s="87"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="65" t="s">
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="65" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="65" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="O27" s="79" t="s">
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="O27" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="91"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="38"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -1921,147 +1920,147 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="93"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="O29" s="81" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="O29" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="93"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="79" t="s">
+      <c r="E30" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="80"/>
-      <c r="G30" s="85" t="s">
+      <c r="F30" s="58"/>
+      <c r="G30" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="78" t="s">
+      <c r="H30" s="62"/>
+      <c r="I30" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="78"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="93"/>
+      <c r="J30" s="33"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="93"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="96"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="45"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62" t="s">
+      <c r="C34" s="49"/>
+      <c r="D34" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="63" t="s">
+      <c r="E34" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="63"/>
-      <c r="G34" s="61" t="s">
+      <c r="F34" s="85"/>
+      <c r="G34" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61" t="s">
+      <c r="H34" s="49"/>
+      <c r="I34" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="J34" s="61"/>
+      <c r="J34" s="49"/>
       <c r="L34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="103" t="s">
+      <c r="M34" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2075,22 +2074,22 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="L36" s="72" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="L36" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2099,55 +2098,55 @@
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="L37" s="102" t="str">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="L37" s="25" t="str">
         <f>F10</f>
         <v>Датчик скорости ветра, ДВС-03, ДВС-03-01</v>
       </c>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="102"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102" t="s">
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R37" s="102"/>
-      <c r="S37" s="104" t="str">
+      <c r="R37" s="25"/>
+      <c r="S37" s="29" t="str">
         <f>IF(F16&lt;&gt; "", F16, "")</f>
         <v/>
       </c>
-      <c r="T37" s="104"/>
-      <c r="U37" s="104"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
       <c r="V37" s="1"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="108" t="s">
+      <c r="B38" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="D38" s="120" t="s">
+      <c r="C38" s="65"/>
+      <c r="D38" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="114" t="s">
+      <c r="E38" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="115"/>
-      <c r="G38" s="126" t="s">
+      <c r="F38" s="74"/>
+      <c r="G38" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="127"/>
-      <c r="I38" s="108" t="s">
+      <c r="H38" s="80"/>
+      <c r="I38" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="J38" s="109"/>
+      <c r="J38" s="65"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -2161,141 +2160,141 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="110"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="111"/>
-      <c r="L39" s="104" t="str">
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="67"/>
+      <c r="L39" s="29" t="str">
         <f>IF(AND(O2&lt;&gt;"",O3&lt;&gt;"",M10&lt;&gt;"",M34&lt;&gt;""), IF(AND(O2="Соответствует п.8.4. МП 254-0193-2023",O3="Соответствует п.9.2. МП 254-0193-2023",M10="Соответствует п.10.1.6./п.10.2.5 МП 254-0193-2023",M34="Соответствует п.10.1.6./п.10.2.5 МП 254-0193-2023"), "Признан пригодным к применению в сфере государственного регулирования.", "Признан непригодным к применению в сфере государственного регулирования."), "")</f>
         <v>Признан пригодным к применению в сфере государственного регулирования.</v>
       </c>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="104"/>
-      <c r="T39" s="104"/>
-      <c r="U39" s="104"/>
-      <c r="V39" s="104"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="112"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="113"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="69"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="62" t="s">
+      <c r="C41" s="49"/>
+      <c r="D41" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64" t="s">
+      <c r="F41" s="85"/>
+      <c r="G41" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64" t="s">
+      <c r="H41" s="50"/>
+      <c r="I41" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="61"/>
+      <c r="J41" s="49"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="L42" s="102" t="s">
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="L42" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="M42" s="102"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="106"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
       <c r="S42" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="T42" s="107">
+      <c r="T42" s="32">
         <f>S45</f>
         <v>45334</v>
       </c>
-      <c r="U42" s="107"/>
-      <c r="V42" s="107"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="62" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="48">
         <v>18436</v>
       </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="61" t="s">
+      <c r="F43" s="48"/>
+      <c r="G43" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="61"/>
-      <c r="I43" s="64" t="s">
+      <c r="H43" s="49"/>
+      <c r="I43" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="J43" s="64"/>
-      <c r="N43" s="97" t="s">
+      <c r="J43" s="50"/>
+      <c r="N43" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="98"/>
-      <c r="P43" s="99" t="s">
+      <c r="O43" s="20"/>
+      <c r="P43" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="Q43" s="99"/>
-      <c r="R43" s="99"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2308,106 +2307,78 @@
       <c r="U44" s="1"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="18" t="s">
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="100" t="str">
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="23" t="str">
         <f>IF(D7&lt;&gt;"",D7, "")</f>
         <v/>
       </c>
-      <c r="O45" s="100"/>
-      <c r="P45" s="100"/>
-      <c r="Q45" s="100"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
       <c r="R45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="101">
+      <c r="S45" s="24">
         <f>IF(H7&lt;&gt;"",H7, "")</f>
         <v>45334</v>
       </c>
-      <c r="T45" s="101"/>
-      <c r="U45" s="101"/>
-      <c r="V45" s="101"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="M34:V34"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="L39:V39"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="R12:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="O27:R28"/>
-    <mergeCell ref="O29:R32"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="L6:V6"/>
-    <mergeCell ref="N12:N17"/>
-    <mergeCell ref="O12:O17"/>
-    <mergeCell ref="P12:P17"/>
-    <mergeCell ref="Q12:Q17"/>
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:F46"/>
-    <mergeCell ref="G43:H46"/>
-    <mergeCell ref="I43:J46"/>
-    <mergeCell ref="L1:V1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:V2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:F33"/>
-    <mergeCell ref="G30:H33"/>
-    <mergeCell ref="I30:J33"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="B18:E20"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:J11"/>
+    <mergeCell ref="B12:E14"/>
+    <mergeCell ref="F12:J14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F18:J20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B34:C37"/>
     <mergeCell ref="B38:C40"/>
@@ -2424,57 +2395,85 @@
     <mergeCell ref="G34:H37"/>
     <mergeCell ref="I34:J37"/>
     <mergeCell ref="D34:D37"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F18:J20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="B18:E20"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:J11"/>
-    <mergeCell ref="B12:E14"/>
-    <mergeCell ref="F12:J14"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:F33"/>
+    <mergeCell ref="G30:H33"/>
+    <mergeCell ref="I30:J33"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:F46"/>
+    <mergeCell ref="G43:H46"/>
+    <mergeCell ref="I43:J46"/>
+    <mergeCell ref="L6:V6"/>
+    <mergeCell ref="N12:N17"/>
+    <mergeCell ref="O12:O17"/>
+    <mergeCell ref="P12:P17"/>
+    <mergeCell ref="Q12:Q17"/>
+    <mergeCell ref="O29:R32"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R12:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="O27:R28"/>
+    <mergeCell ref="L39:V39"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="M34:V34"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="S45:V45"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:J9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:J9">
       <formula1>"Первичная, Периодическая"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T13" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T13">
       <formula1>"Соответствует п.7.1. МП 2550-2284-2017, Не соответствует п.7.1. МП 2550-2284-2017"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:V5" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4:V5">
       <formula1>"Соответствует п.7.2. МП 2550-2284-2017, Не соответствует п.7.2. МП 2550-2284-2017"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M34:V34" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M34:V34">
       <formula1>"Соответствует п.10.1.6./п.10.2.5 МП 254-0193-2023, Не соответствует п.10.1.6./п.10.2.5 МП 254-0193-2023"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L38" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L38">
       <formula1>"соответствует установленным в описании типа метрологическим требованиям, несоответствует установленным в описании типа метрологическим требованиям"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:V2" xr:uid="{307E441F-67B2-4421-BE80-60946EBB7FF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:V2">
       <formula1>"Соответствует п.8.4. МП 254-0193-2023, Не соответствует п.8.4. МП 254-0193-2023"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:V3" xr:uid="{FECD733E-66A9-45E3-A5B9-861CCE005604}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:V3">
       <formula1>"Соответствует п.9.2. МП 254-0193-2023, Не соответствует п.9.2. МП 254-0193-2023"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10" xr:uid="{E93B7972-40C8-47D5-85B9-BB60C7BAF929}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10">
       <formula1>"Соответствует п.10.1.6./п.10.2.5 МП 254-0193-2023, Не соответствует п.10.1.6./п.10.2.5 МП 254-0193-2023"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2486,7 +2485,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Выбор поверителя" prompt="Выбрать ФИО из выпадающего списка" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Выбор поверителя" prompt="Выбрать ФИО из выпадающего списка">
           <x14:formula1>
             <xm:f>Poveriteli!$B:$B</xm:f>
           </x14:formula1>
@@ -2499,7 +2498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
